--- a/biology/Écologie/Écozone/Écozone.xlsx
+++ b/biology/Écologie/Écozone/Écozone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone</t>
+          <t>Écozone</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans certains systèmes de classification écologique des territoires biogéographiques terrestres, une écozone est définie comme étant une partie de la surface terrestre représentative d'une unité écologique à grande échelle, caractérisée par des facteurs abiotiques (non vivants) et biotiques (vivants) particuliers.
-Le système des écozones est proposé par Miklos Udvardy[1] dans un objectif de conservation en 1975. Il est maintenant utilisé internationalement comme système unifié à des fins d’identification biogéographique et de conservation. 
+Le système des écozones est proposé par Miklos Udvardy dans un objectif de conservation en 1975. Il est maintenant utilisé internationalement comme système unifié à des fins d’identification biogéographique et de conservation. 
 Une autre appellation pour écozone est région biogéographique.
 À une plus petite échelle, les écozones sont subdivisées en écorégions. Dans ce système, pour ce qui concerne les terres émergées, une autre appellation pour écorégion est province biogéographique.
 </t>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone</t>
+          <t>Écozone</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Huit écozones</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces écozones sont souvent qualifiées de sous-régions, si elles sont regroupées à un niveau supérieur, la surface terrestre étant divisée en huit écozones :
 Afrotropicale 22,1 millions de kilomètres carrés
@@ -542,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cozone</t>
+          <t>Écozone</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -562,19 +576,92 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Empires fauniques
-Le regroupement maximal des écozones en empires fauniques permet la distinction de grandes aires biogéographiques correspondant à diverses glaciations et séparations continentales, il subsiste alors 3 grandes aires fauniques :
+          <t>Empires fauniques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le regroupement maximal des écozones en empires fauniques permet la distinction de grandes aires biogéographiques correspondant à diverses glaciations et séparations continentales, il subsiste alors 3 grandes aires fauniques :
 l'Arctogée ou Mégagée, regroupant l'holarctique (paléarctique et néarctique), l'afrotropical et l'indomalais ;
 la Néogée, composée du néotropique
-la Notogée, correspondant aux écozones australasienne, océanienne et antarctique .
-Royaumes floraux
-Le regroupement maximal des écozones en royaumes floraux permet la distinction de grandes aires biogéographiques correspondant à diverses influences climatiques, glaciations et séparations continentales, il subsiste alors 4 grandes aires floristiques :
+la Notogée, correspondant aux écozones australasienne, océanienne et antarctique .</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Regroupements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Royaumes floraux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le regroupement maximal des écozones en royaumes floraux permet la distinction de grandes aires biogéographiques correspondant à diverses influences climatiques, glaciations et séparations continentales, il subsiste alors 4 grandes aires floristiques :
 la Borealis ou Holarctis, regroupant le paléarctique et le néarctique ;
 la Paleotropis, composée de l'afrotropical, de l'indomalais et de l'océanien ;
 la Neotropis, composée du néotropique ;
-l'Australis ou Holantarctis, correspondant à l'australasien (et antarctique ?).
-Regroupements géographiques
-La classification d'Alfred Russel Wallace (1876) pour la géographie zoologique et celle d'Adolf Engler (1879) pour la géographie botanique ont permis la distinction de grandes régions séparées par des contraintes naturelles et géologiques (tectonique des plaques, formation des montagnes, et variations du climat liées à ces bouleversements géologiques)[2] plus contraignantes que celle des empires fauniques et des royaumes floraux, dès lors dans un souci de convergence on distingua 5 grands complexes d'écozones, divisées elles-mêmes en sous-régions, plus l'écozone Antarctique, toujours soumise à controverses.
+l'Australis ou Holantarctis, correspondant à l'australasien (et antarctique ?).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Regroupements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Regroupements géographiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La classification d'Alfred Russel Wallace (1876) pour la géographie zoologique et celle d'Adolf Engler (1879) pour la géographie botanique ont permis la distinction de grandes régions séparées par des contraintes naturelles et géologiques (tectonique des plaques, formation des montagnes, et variations du climat liées à ces bouleversements géologiques) plus contraignantes que celle des empires fauniques et des royaumes floraux, dès lors dans un souci de convergence on distingua 5 grands complexes d'écozones, divisées elles-mêmes en sous-régions, plus l'écozone Antarctique, toujours soumise à controverses.
 l'écozone afrotropicale, aussi appelée éthiopienne, où l'on peut observer deux grandes sous-régions : l'Afrique subsaharienne et Madagascar qui ont connu un développement indépendant
 l'écozone antarctique est parfois associée au complexe australien de par sa participation antérieure à la Notogée (continent).
 le complexe australien subdivisé en deux grandes régions :
